--- a/實驗結果/不同起始lr比較.xlsx
+++ b/實驗結果/不同起始lr比較.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE06005-E4BE-40EB-AC0B-25F7883D7D04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014B94A9-0EB2-4E33-9DE2-F2F123927CE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1e-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,11 @@
   </si>
   <si>
     <t>(epoch均為 50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e-3
+第二次實驗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,8 +69,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="179" formatCode="0.000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -157,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,15 +175,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
@@ -526,11 +534,12 @@
     <col min="1" max="1" width="13.5" style="3"/>
     <col min="2" max="2" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.5" style="3"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="13.5" style="3"/>
+    <col min="6" max="7" width="10.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="13.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="39.6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -544,8 +553,11 @@
         <v>1</v>
       </c>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0.1</v>
       </c>
@@ -561,8 +573,11 @@
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="9">
+        <v>7.5641574200000006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0.2</v>
       </c>
@@ -575,8 +590,11 @@
       <c r="D3" s="9">
         <v>0.276010228804</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="9">
+        <v>0.122970755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -589,8 +607,11 @@
       <c r="D4" s="9">
         <v>0.26178106246080002</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="9">
+        <v>0.1083663254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>0.4</v>
       </c>
@@ -603,8 +624,11 @@
       <c r="D5" s="9">
         <v>0.28815872619999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="9">
+        <v>0.24138284009200001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
@@ -617,8 +641,11 @@
       <c r="D6" s="9">
         <v>0.29975695198000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="9">
+        <v>0.21045160469999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>0.6</v>
       </c>
@@ -631,8 +658,11 @@
       <c r="D7" s="9">
         <v>0.38549855799999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="9">
+        <v>0.24799007000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>0.7</v>
       </c>
@@ -645,8 +675,11 @@
       <c r="D8" s="9">
         <v>0.62495719000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="9">
+        <v>0.59778196895000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>0.8</v>
       </c>
@@ -662,8 +695,11 @@
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H9" s="9">
+        <v>0.36804249230000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.9</v>
       </c>
@@ -679,13 +715,16 @@
       <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="10">
+        <v>0.62459686038999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -694,7 +733,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
@@ -703,17 +742,17 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -755,6 +794,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFC5E3E"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C10">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -765,7 +824,7 @@
         <color rgb="FFFC5E3E"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -774,7 +833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C10">
+  <conditionalFormatting sqref="B2:B10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -794,7 +853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/實驗結果/不同起始lr比較.xlsx
+++ b/實驗結果/不同起始lr比較.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014B94A9-0EB2-4E33-9DE2-F2F123927CE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A3FD6-7E26-4901-A3FD-874577D378F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,11 +182,11 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,6 +195,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFC5E3E"/>
       <color rgb="FFD52603"/>
@@ -268,7 +334,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -526,7 +592,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
@@ -553,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -725,22 +791,22 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>

--- a/實驗結果/不同起始lr比較.xlsx
+++ b/實驗結果/不同起始lr比較.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A3FD6-7E26-4901-A3FD-874577D378F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F64B3-7A92-4B26-8616-389CC77737B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -112,15 +112,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
@@ -158,35 +149,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,266 +651,266 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="3"/>
-    <col min="2" max="2" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.5" style="3"/>
-    <col min="6" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="13.5" style="3"/>
+    <col min="1" max="1" width="13.5" style="2"/>
+    <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5" style="2"/>
+    <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="13.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="H1" s="11" t="s">
+      <c r="E1" s="1"/>
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+      <c r="A2" s="15">
         <v>0.1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="12">
         <v>0.242649</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>7.7053385000000002E-2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>0.27508636600000003</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>7.5641574200000006E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="A3" s="15">
         <v>0.2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>0.65310699999999999</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0.11136868078999999</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>0.276010228804</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>0.122970755</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="A4" s="15">
         <v>0.3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>0.31923710511600001</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>0.15629137000000001</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0.26178106246080002</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>0.1083663254</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+      <c r="A5" s="15">
         <v>0.4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="12">
         <v>0.65538848670000005</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>0.12116410449999999</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>0.28815872619999999</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>0.24138284009200001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+      <c r="A6" s="15">
         <v>0.5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="12">
         <v>0.65317371421000003</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>0.17785630569999999</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>0.29975695198000002</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>0.21045160469999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+      <c r="A7" s="15">
         <v>0.6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>0.56873490999999998</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>0.25909064100000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>0.38549855799999999</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>0.24799007000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+      <c r="A8" s="15">
         <v>0.7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="12">
         <v>0.65273257979999999</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>0.34178368129999998</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>0.62495719000000005</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>0.59778196895000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+      <c r="A9" s="15">
         <v>0.8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="12">
         <v>0.65272512989999998</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>0.4434750846503</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>0.64669367600000005</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>0.36804249230000002</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10" s="15">
         <v>0.9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="13">
         <v>0.6525523016</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>0.62615060499999997</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>0.60149632929999997</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <v>0.62459686038999995</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -940,7 +999,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>